--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\jira-metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8A308-9782-4A24-B321-CDD2B07EFAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A14D4B6-3317-4249-822A-5E2889338F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Code Review</c:v>
+                  <c:v>Blocked</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -140,12 +140,9 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>PN-14 (6.05 - 19.05)</c:v>
+                  <c:v>PN-15 (20.05 - 2.06)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PN-15 (20.05 - 2.06)</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>PN-16 (3.06 - 16.06)</c:v>
                 </c:pt>
               </c:strCache>
@@ -158,13 +155,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>32.49</c:v>
+                  <c:v>132.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.33</c:v>
+                  <c:v>10.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -185,7 +179,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>In Progress</c:v>
+                  <c:v>Code Review</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -208,12 +202,9 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>PN-14 (6.05 - 19.05)</c:v>
+                  <c:v>PN-15 (20.05 - 2.06)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PN-15 (20.05 - 2.06)</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>PN-16 (3.06 - 16.06)</c:v>
                 </c:pt>
               </c:strCache>
@@ -226,12 +217,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>18.22</c:v>
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>9.58</c:v>
                 </c:pt>
               </c:numCache>
@@ -253,7 +241,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manual Testing</c:v>
+                  <c:v>In Progress</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -276,12 +264,9 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>PN-14 (6.05 - 19.05)</c:v>
+                  <c:v>PN-15 (20.05 - 2.06)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PN-15 (20.05 - 2.06)</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>PN-16 (3.06 - 16.06)</c:v>
                 </c:pt>
               </c:strCache>
@@ -294,13 +279,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.6199999999999992</c:v>
+                  <c:v>19.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26.25</c:v>
+                  <c:v>44.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,7 +303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ready to Test</c:v>
+                  <c:v>Manual Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -344,12 +326,9 @@
               <c:strCache>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>PN-14 (6.05 - 19.05)</c:v>
+                  <c:v>PN-15 (20.05 - 2.06)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PN-15 (20.05 - 2.06)</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>PN-16 (3.06 - 16.06)</c:v>
                 </c:pt>
               </c:strCache>
@@ -362,12 +341,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>9.68</c:v>
+                  <c:v>13.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.76</c:v>
                 </c:pt>
               </c:numCache>
@@ -377,6 +353,68 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-51C7-4989-848D-687B0FCAEE8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Summary!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ready to Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Summary!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>PN-15 (20.05 - 2.06)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PN-16 (3.06 - 16.06)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Summary!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-869B-48AF-9C24-D8EE9AEFA152}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -409,7 +447,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>AvgDuration</c:v>
+                        <c:v>Ready to Test</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -438,12 +476,9 @@
                     <c:strCache>
                       <c:ptCount val="19"/>
                       <c:pt idx="0">
-                        <c:v>PN-14 (6.05 - 19.05)</c:v>
+                        <c:v>PN-15 (20.05 - 2.06)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>PN-15 (20.05 - 2.06)</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
                         <c:v>PN-16 (3.06 - 16.06)</c:v>
                       </c:pt>
                     </c:strCache>
@@ -462,13 +497,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="19"/>
                       <c:pt idx="0">
-                        <c:v>461.06</c:v>
+                        <c:v>6.03</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>373.06</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>261.26</c:v>
+                        <c:v>26.25</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1398,92 +1430,70 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Лист2"/>
       <sheetName val="Summary"/>
       <sheetName val="Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
+            <v>Blocked</v>
+          </cell>
+          <cell r="C1" t="str">
             <v>Code Review</v>
           </cell>
-          <cell r="C1" t="str">
+          <cell r="D1" t="str">
             <v>In Progress</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E1" t="str">
             <v>Manual Testing</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>Ready to Test</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>AvgDuration</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>PN-14 (6.05 - 19.05)</v>
+            <v>PN-15 (20.05 - 2.06)</v>
           </cell>
           <cell r="B2">
-            <v>32.49</v>
+            <v>132.72999999999999</v>
           </cell>
           <cell r="C2">
-            <v>18.22</v>
+            <v>8.8000000000000007</v>
           </cell>
           <cell r="D2">
-            <v>8.6199999999999992</v>
+            <v>19.559999999999999</v>
           </cell>
           <cell r="E2">
-            <v>9.68</v>
+            <v>13.12</v>
           </cell>
           <cell r="F2">
-            <v>461.06</v>
+            <v>6.03</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>PN-15 (20.05 - 2.06)</v>
+            <v>PN-16 (3.06 - 16.06)</v>
           </cell>
           <cell r="B3">
-            <v>19.559999999999999</v>
+            <v>10.76</v>
           </cell>
           <cell r="C3">
-            <v>8.8000000000000007</v>
+            <v>9.58</v>
           </cell>
           <cell r="D3">
-            <v>6.03</v>
+            <v>44.56</v>
           </cell>
           <cell r="E3">
-            <v>13.12</v>
+            <v>0.76</v>
           </cell>
           <cell r="F3">
-            <v>373.06</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>PN-16 (3.06 - 16.06)</v>
-          </cell>
-          <cell r="B4">
-            <v>44.33</v>
-          </cell>
-          <cell r="C4">
-            <v>9.58</v>
-          </cell>
-          <cell r="D4">
             <v>26.25</v>
-          </cell>
-          <cell r="E4">
-            <v>0.76</v>
-          </cell>
-          <cell r="F4">
-            <v>261.26</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1755,7 +1765,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
